--- a/data/trans_dic/P1806_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007104932829509148</v>
+        <v>0.007020817555197253</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04033868310716327</v>
+        <v>0.04057132474405872</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02778204567524503</v>
+        <v>0.02745133314523328</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03974498857630857</v>
+        <v>0.03903656973888488</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07277018041276295</v>
+        <v>0.07158800184357961</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05087472888967499</v>
+        <v>0.05147069954114806</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.01815523465104499</v>
+        <v>0.01815523465104498</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04124150364909842</v>
+        <v>0.04124150364909843</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03056418032816792</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01155645697084149</v>
+        <v>0.01106166755478597</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03315065049254193</v>
+        <v>0.03328969227481847</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02501011955275916</v>
+        <v>0.0249653948028293</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02815998210245363</v>
+        <v>0.02923946874688487</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05227021148386144</v>
+        <v>0.05223768021141133</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03809312063990231</v>
+        <v>0.03817548461522982</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003845037932575237</v>
+        <v>0.004059672484789324</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03167415790764748</v>
+        <v>0.03094532135466508</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01860996879926916</v>
+        <v>0.01863837313419586</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01414800690019399</v>
+        <v>0.01335382206550423</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05111243235694339</v>
+        <v>0.05103806530439808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02971095008789358</v>
+        <v>0.0301829777165014</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.04885768670853693</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07818124868433433</v>
+        <v>0.07818124868433432</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.06299598063514873</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03538718378818815</v>
+        <v>0.03631432460886407</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06381837467831716</v>
+        <v>0.06444584720547103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05271822962390337</v>
+        <v>0.05319013864919576</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06536578074489774</v>
+        <v>0.06674651262828776</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09548029691922837</v>
+        <v>0.09381604403727353</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07542423331917303</v>
+        <v>0.07475258530211495</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.05220007648608858</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.03829712697336284</v>
+        <v>0.03829712697336286</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01869641095855288</v>
+        <v>0.01881903317731242</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04626092572607</v>
+        <v>0.04620992014327672</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03405285228129388</v>
+        <v>0.03430212246090673</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03015940837194556</v>
+        <v>0.02873516368804118</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05897923520592761</v>
+        <v>0.05904631014982833</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04271011075364183</v>
+        <v>0.04273691766637572</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3544</v>
+        <v>3502</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>25154</v>
+        <v>25299</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>31180</v>
+        <v>30809</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19822</v>
+        <v>19469</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45378</v>
+        <v>44641</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>57098</v>
+        <v>57767</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11096</v>
+        <v>10621</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>36991</v>
+        <v>37146</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>51921</v>
+        <v>51828</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27037</v>
+        <v>28074</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>58326</v>
+        <v>58289</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>79081</v>
+        <v>79252</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4024</v>
+        <v>4248</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>33183</v>
+        <v>32420</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>38972</v>
+        <v>39031</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14806</v>
+        <v>13974</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>53548</v>
+        <v>53470</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>62218</v>
+        <v>63207</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>34535</v>
+        <v>35440</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>57988</v>
+        <v>58558</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>99351</v>
+        <v>100241</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>63792</v>
+        <v>65140</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>86757</v>
+        <v>85245</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>142142</v>
+        <v>140877</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>65088</v>
+        <v>65514</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>170967</v>
+        <v>170779</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>244397</v>
+        <v>246186</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>104993</v>
+        <v>100035</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>217970</v>
+        <v>218218</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>306530</v>
+        <v>306723</v>
       </c>
     </row>
     <row r="24">
